--- a/Challenge/src/kadaiUT03/UT03_エビデンス.xlsx
+++ b/Challenge/src/kadaiUT03/UT03_エビデンス.xlsx
@@ -13,6 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="エビデンス" sheetId="1" r:id="rId1"/>
+    <sheet name="0001" sheetId="2" r:id="rId2"/>
+    <sheet name="0002" sheetId="3" r:id="rId3"/>
+    <sheet name="0003" sheetId="4" r:id="rId4"/>
+    <sheet name="0004" sheetId="5" r:id="rId5"/>
+    <sheet name="0005" sheetId="6" r:id="rId6"/>
+    <sheet name="0006" sheetId="7" r:id="rId7"/>
+    <sheet name="0007" sheetId="8" r:id="rId8"/>
+    <sheet name="0008" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,40 +32,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>一郎, 東京都中野区中野坂上10-101-110, 2015/01/10</t>
-  </si>
-  <si>
-    <t>太郎, 東京都中野区中野坂上10-101-110, 2015/01/10</t>
-  </si>
-  <si>
-    <t>太郎, 東京都中野区中野坂上100, 2015/01/11</t>
-  </si>
-  <si>
-    <t>花子, 東京都新宿区110, 2015/01/11</t>
-  </si>
-  <si>
-    <t>太郎, アメリカ, 2015/01/02</t>
-  </si>
-  <si>
-    <t>出力結果</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+  <si>
+    <t>input</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>output</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鈴木,忠,石川県金沢市,2000/11/7
+舞浜,心,石川県野々市市,2005/5/30
+柏,舞,石川県金沢市,2010/10/11
+木村,美奈子,石川県能美市,1988/7/10
+高橋,アイザック,アメリカニューヨーク,1970/6/25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイザック, アメリカニューヨーク, 1970/6/25
+忠, 石川県金沢市, 2000/11/7
+心, 石川県野々市市, 2005/5/30
+舞, 石川県金沢市, 2010/10/11
+美奈子, 石川県能美市, 1988/7/10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面エビデンスNo.</t>
     <rPh sb="0" eb="2">
-      <t>シュツリョク</t>
+      <t>ガメン</t>
     </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出力結果エビデンス</t>
-    <rPh sb="0" eb="2">
-      <t>シュツリョク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケッカ</t>
-    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>0008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">アイザック, アメリカニューヨーク, 1970/6/25
+忠, 石川県金沢市, 2000/11/7
+心, 石川県野々市市, 2005/5/30
+舞, 石川県金沢市, 2010/10/11
+美奈子, 石川県能美市, 1988/7/10
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">鈴木,忠,石川県金沢市,2000/11/7
+鈴木,心,石川県野々市市,2005/5/30
+鈴木,舞,石川県金沢市,2010/10/11
+木村,美奈子,石川県能美市,1988/7/10
+高橋,アイザック,アメリカニューヨーク,1970/6/25
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">アイザック, アメリカニューヨーク, 1970/6/25
+忠, 石川県金沢市, 2000/11/10
+心, 石川県野々市市, 2000/11/7
+舞, 石川県金沢市, 2000/11/30
+美奈子, 石川県能美市, 1988/7/10
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鈴木,忠,石川県金沢市,2004/02/29
+鈴木,心,石川県野々市市,2005/5/30
+鈴木,舞,石川県金沢市,2010/10/11
+木村,美奈子,石川県能美市,1988/7/10
+高橋,アイザック,アメリカニューヨーク,1970/6/25</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイザック, アメリカニューヨーク, 1970/6/25
+忠, 石川県金沢市, 2004/02/29
+心, 石川県野々市市, 2005/5/30
+舞, 石川県金沢市, 2010/10/11
+美奈子, 石川県能美市, 1988/7/10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">鈴木,忠,石川県金沢市,2004/02/29
+鈴木,心,石川県野々市市,2005/5/30
+鈴木,舞,石川県金沢市,2010/10/11
+木村,美奈子,石川県能美市,2010/10/11
+高橋,アイザック,アメリカニューヨーク,1970/6/25
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">アイザック, アメリカニューヨーク, 1970/6/25
+忠, 石川県金沢市, 2004/02/29
+心, 石川県野々市市, 2005/5/30
+舞, 石川県金沢市, 2010/10/11
+美奈子, 石川県能美市, 2010/10/11
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">鈴木,忠,石川県金沢市,2004/02/29
+鈴木,心,石川県野々市市,2005/5/30
+鈴木,舞,石川県金沢市,2010/10/11
+木村,美奈子,石川県能美市,2010/10/11
+高橋,アイザック,アメリカニューヨーク,1970/6/25
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中身がありません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイルが存在しません。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>舞浜,忠,石川県金沢市,2000/11/10
+舞浜,心,石川県野々市市,2000/11/7
+舞浜,舞,石川県金沢市,2000/11/30
+舞浜,美奈子,石川県能美市,2000/11/28
+舞浜,アイザック,アメリカニューヨーク,2000/11/13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">忠, 石川県金沢市, 2000/11/10
+心, 石川県野々市市, 2000/11/7
+舞, 石川県金沢市, 2000/11/30
+美奈子, 石川県能美市, 2000/11/28
+アイザック, アメリカニューヨーク, 2000/11/13
+</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -91,7 +215,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -110,12 +234,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -136,18 +272,163 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>257175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>790575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="四角形吹き出し 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8972550" y="4752975"/>
+          <a:ext cx="2171700" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -70394"/>
+            <a:gd name="adj2" fmla="val 71429"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>中身がない</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>csv</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ファイルを引数に指定した場合のため、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>input</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>は無し</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>438150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形吹き出し 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8848725" y="5600700"/>
+          <a:ext cx="2171700" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -75657"/>
+            <a:gd name="adj2" fmla="val -42857"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>存在しないファイルパスを引数に指定した場合のため、</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>input</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>は無し</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>65051</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>56286</xdr:rowOff>
+      <xdr:colOff>7899</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>122958</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -164,8 +445,309 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3438525" y="342900"/>
-          <a:ext cx="12990476" cy="6914286"/>
+          <a:off x="28575" y="47625"/>
+          <a:ext cx="13009524" cy="6933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>665124</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>75333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13009524" cy="6933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>665124</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>75333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13009524" cy="6933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>665124</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>75333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13009524" cy="6933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>665124</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>75333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13009524" cy="6933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>665124</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>75333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13009524" cy="6933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>665124</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>75333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13009524" cy="6933333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>665124</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>75333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="13009524" cy="6933333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -440,54 +1022,232 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="45.125" customWidth="1"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="49.25" customWidth="1"/>
+    <col min="2" max="2" width="48" customWidth="1"/>
+    <col min="3" max="3" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="84" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="81" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>0</v>
+    <row r="4" spans="1:3" ht="81" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>1</v>
+    <row r="5" spans="1:3" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>2</v>
+    <row r="6" spans="1:3" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>3</v>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="81" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C10" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>